--- a/Mahfil.xlsx
+++ b/Mahfil.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shahriar/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF319953-1FB2-814F-A6B0-B5331F54F096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21510" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21520" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case" sheetId="1" r:id="rId1"/>
@@ -96,15 +97,9 @@
     <t>Cannot Type any Special Character</t>
   </si>
   <si>
-    <t>Check OTP Requard or not</t>
-  </si>
-  <si>
     <t xml:space="preserve">4 Digit </t>
   </si>
   <si>
-    <t>Requard</t>
-  </si>
-  <si>
     <t>Massage Is Showing OTP has been send to your phone. Please Check</t>
   </si>
   <si>
@@ -316,12 +311,18 @@
   </si>
   <si>
     <t>Commend</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>Check OTP Required or not</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -429,7 +430,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -450,40 +451,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -495,9 +487,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -779,52 +768,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="3" max="3" width="47.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
-    <col min="5" max="5" width="35.140625" customWidth="1"/>
-    <col min="6" max="6" width="60.5703125" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" customWidth="1"/>
+    <col min="3" max="3" width="47.83203125" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="35.1640625" customWidth="1"/>
+    <col min="6" max="6" width="60.5" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -834,7 +823,7 @@
       <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
@@ -847,13 +836,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
@@ -864,13 +853,13 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E4" t="s">
@@ -883,13 +872,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
       <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
@@ -900,285 +889,291 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
       <c r="C6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
         <v>2</v>
       </c>
       <c r="B7" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="G7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>3</v>
       </c>
       <c r="B9" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" t="s">
-        <v>48</v>
-      </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
         <v>4</v>
       </c>
       <c r="B13" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
         <v>5</v>
       </c>
       <c r="B15" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="11" t="s">
+      <c r="E15" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
         <v>6</v>
       </c>
       <c r="B17" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="E17" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="F17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
       <c r="B18" s="16"/>
       <c r="C18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F18" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
         <v>7</v>
       </c>
       <c r="B19" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="E19" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F19" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
       <c r="C20" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B12"/>
@@ -1187,19 +1182,13 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A17:A18"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G4" r:id="rId2"/>
-    <hyperlink ref="G6" r:id="rId3"/>
-    <hyperlink ref="G7" r:id="rId4"/>
-    <hyperlink ref="G8" r:id="rId5"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
@@ -1207,140 +1196,140 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="42.140625" customWidth="1"/>
-    <col min="4" max="4" width="39.28515625" customWidth="1"/>
+    <col min="3" max="3" width="42.1640625" customWidth="1"/>
+    <col min="4" max="4" width="39.33203125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23">
+    </row>
+    <row r="2" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="E2" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="20"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D3" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="20"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="20"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="17" t="s">
+      <c r="D5" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="18" t="s">
+      <c r="E5" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="20"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="C8" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
-        <v>2</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
-        <v>3</v>
-      </c>
-      <c r="B8" s="18" t="s">
+      <c r="D8" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>75</v>
+      <c r="E8" s="13" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
